--- a/Documents/Billing-Statement-form.xlsx
+++ b/Documents/Billing-Statement-form.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\TEVES-Laravel\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9C28F2E-AB00-4D67-B071-95D6F108CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D81BBF-3A86-413A-AEE2-A496894FC272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0125C2CC-56FE-4ABB-A7E4-A48064F91EF6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0125C2CC-56FE-4ABB-A7E4-A48064F91EF6}"/>
   </bookViews>
   <sheets>
     <sheet name="May 30 2022" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TEVES GASOLINE STATION</t>
   </si>
@@ -95,6 +93,15 @@
   </si>
   <si>
     <t>Station Manager</t>
+  </si>
+  <si>
+    <t>Must Have a Client List Table</t>
+  </si>
+  <si>
+    <t>Must Have a Product List Table with Details of Prices</t>
+  </si>
+  <si>
+    <t>Amount Auto Compute Based on Selected Product Price by Liters.</t>
   </si>
 </sst>
 </file>
@@ -102,9 +109,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -195,7 +202,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +224,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,100 +292,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,604 +766,612 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC95511-3364-44CE-9283-D96B69225C2A}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1"/>
     <row r="5" spans="1:9" ht="27" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1"/>
     <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="33"/>
+      <c r="F8" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1"/>
     <row r="10" spans="1:9">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="18"/>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="18"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="18"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="18"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="22"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="18"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="21"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="18"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="18"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="18"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="18"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="18"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="18"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="18"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="18"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="18"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="22"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="18"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="22"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="18"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="22"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="18"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="18"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="18"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="22"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="18"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="21"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="18"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="18"/>
-      <c r="K41" s="23"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="11"/>
+      <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="18"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="22"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="22"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="18"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="18"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="18"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="18"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="18"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="18"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="27" customHeight="1" thickBot="1">
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25">
+      <c r="G51" s="21"/>
+      <c r="H51" s="17">
         <f>SUM(H11:H50)</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickTop="1"/>
     <row r="53" spans="1:9">
-      <c r="E53" s="23"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="H54" s="26"/>
+      <c r="H54" s="18"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="2" t="s">
         <v>19</v>
       </c>
     </row>
